--- a/grupos/4BEM - Estadisticos 20202.xlsx
+++ b/grupos/4BEM - Estadisticos 20202.xlsx
@@ -1492,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U9">
         <v>10</v>
@@ -1513,7 +1513,7 @@
         <v>6</v>
       </c>
       <c r="AA9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB9">
         <v>9</v>
@@ -1937,7 +1937,7 @@
         <v>5</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>5</v>
@@ -1958,7 +1958,7 @@
         <v>6</v>
       </c>
       <c r="AA14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB14">
         <v>5</v>
@@ -2916,7 +2916,7 @@
         <v>8</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U25">
         <v>10</v>
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="AA25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB25">
         <v>9</v>
@@ -3005,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U26">
         <v>5</v>
@@ -3272,7 +3272,7 @@
         <v>8</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U29">
         <v>9</v>
@@ -3293,7 +3293,7 @@
         <v>6</v>
       </c>
       <c r="AA29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB29">
         <v>8</v>
@@ -3628,7 +3628,7 @@
         <v>8</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U33">
         <v>9</v>
@@ -3649,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="AA33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB33">
         <v>9</v>
@@ -4251,7 +4251,7 @@
         <v>8</v>
       </c>
       <c r="T40">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U40">
         <v>10</v>
@@ -4272,7 +4272,7 @@
         <v>6</v>
       </c>
       <c r="AA40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB40">
         <v>9</v>

--- a/grupos/4BEM - Estadisticos 20202.xlsx
+++ b/grupos/4BEM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="157">
   <si>
     <t>Materia</t>
   </si>
@@ -200,22 +200,22 @@
     <t>Rodríguez Román Leticia</t>
   </si>
   <si>
+    <t>Jiménez Nieto Enrique</t>
+  </si>
+  <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
+    <t>Torres Sánchez José Luis</t>
+  </si>
+  <si>
+    <t>Velasco Sánchez David</t>
+  </si>
+  <si>
     <t>Fernández Castro Araceli</t>
   </si>
   <si>
     <t>Rivera Cruz Ezequiel</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Velasco Sánchez David</t>
-  </si>
-  <si>
-    <t>Torres Sánchez José Luis</t>
-  </si>
-  <si>
-    <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
     <t>NC</t>
@@ -4346,16 +4346,16 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>35.14</v>
+        <v>59.46</v>
       </c>
       <c r="G2">
-        <v>64.86</v>
+        <v>40.54</v>
       </c>
       <c r="H2">
         <v>5.9</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -4378,19 +4378,19 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>56.76</v>
+        <v>94.59</v>
       </c>
       <c r="G3">
-        <v>43.24</v>
+        <v>5.41</v>
       </c>
       <c r="H3">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -4410,19 +4410,19 @@
         <v>37</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>78.38</v>
+        <v>94.59</v>
       </c>
       <c r="G4">
-        <v>21.62</v>
+        <v>5.41</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -4442,19 +4442,19 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>78.38</v>
+        <v>97.3</v>
       </c>
       <c r="G5">
-        <v>21.62</v>
+        <v>2.7</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4474,19 +4474,19 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>83.78</v>
+        <v>97.3</v>
       </c>
       <c r="G6">
-        <v>16.22</v>
+        <v>2.7</v>
       </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5266,7 +5266,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5296,21 +5296,21 @@
         <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920092</v>
+        <v>19330051920091</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -5319,27 +5319,27 @@
         <v>59</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920092</v>
+        <v>19330051920098</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -5347,16 +5347,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920101</v>
+        <v>19330051920099</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -5365,44 +5365,44 @@
         <v>59</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920101</v>
+        <v>19330051920105</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920001</v>
+        <v>19330051920109</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -5416,22 +5416,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920001</v>
+        <v>19330051920112</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -5439,16 +5439,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920118</v>
+        <v>19330051920113</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -5462,39 +5462,39 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920118</v>
+        <v>19330051920001</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920120</v>
+        <v>19330051920118</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -5508,22 +5508,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920120</v>
+        <v>19330051920457</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -5531,16 +5531,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920085</v>
+        <v>19330051920119</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -5549,27 +5549,27 @@
         <v>59</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920095</v>
+        <v>19330051920120</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -5577,16 +5577,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920096</v>
+        <v>19330051920124</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -5596,121 +5596,6 @@
       </c>
       <c r="G14">
         <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920116</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920122</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
